--- a/prj_integracao_NataliaAbrao_Performer/Data/Config.xlsx
+++ b/prj_integracao_NataliaAbrao_Performer/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natalia.abrao\Documents\UiPath\prj_integracao_NataliaAbrao_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natalia.abrao\Documents\UiPath\prj_integracao_NataliAbrao\prj_integracao_NataliaAbrao_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591DB037-1DE8-4A0F-89CC-EF390837FE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C09D8-393A-4568-8F77-3BCCF360641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
   </si>
   <si>
     <t>MaxConsecutiveSystemExceptions</t>
@@ -534,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -584,36 +578,28 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="30">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1606,7 +1592,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1677,13 +1662,13 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1756,48 +1741,48 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
